--- a/模块说明_文档/野火RC522与各开发板引脚连接说明.xlsx
+++ b/模块说明_文档/野火RC522与各开发板引脚连接说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="21000" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
   <si>
     <t>RC522模块与各开发板引脚连接说明</t>
   </si>
@@ -120,6 +120,9 @@
     <t>PB14</t>
   </si>
   <si>
+    <t>PB4</t>
+  </si>
+  <si>
     <t>PB10</t>
   </si>
   <si>
@@ -135,6 +138,9 @@
     <t>PF7</t>
   </si>
   <si>
+    <t>PB5</t>
+  </si>
+  <si>
     <t>PA12</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
   </si>
   <si>
     <t>PF6</t>
+  </si>
+  <si>
+    <t>PB3</t>
   </si>
   <si>
     <t>PD12</t>
@@ -176,19 +185,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,68 +229,103 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,71 +337,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,15 +359,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,13 +406,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,25 +484,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,151 +574,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,6 +661,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -697,6 +711,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,252 +758,193 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -978,19 +953,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1344,7 +1310,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1400,16 +1366,16 @@
       <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1434,7 +1400,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="18"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A4" s="9">
@@ -1464,16 +1430,16 @@
       <c r="I4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1505,16 +1471,16 @@
       <c r="I5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1546,16 +1512,16 @@
       <c r="I6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1587,16 +1553,16 @@
       <c r="I7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1626,19 +1592,19 @@
         <v>33</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>34</v>
+      <c r="L8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1646,39 +1612,39 @@
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1687,39 +1653,39 @@
         <v>7</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1728,40 +1694,40 @@
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
